--- a/data/income_statement/3digits/total/139_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/139_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>139-Manufacture of other textiles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>139-Manufacture of other textiles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>15207398.06561</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>18462742.17262</v>
+        <v>18470534.19069</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>24467028.51696</v>
+        <v>24478430.74871</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>27242494.21321</v>
+        <v>27435035.471</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>30880447.66296</v>
+        <v>31012689.83761999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>36155365.93164999</v>
+        <v>36618239.07078</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>37983324.14607001</v>
+        <v>39837202.45369</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>43731270.99298</v>
+        <v>43854051.6969</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>54564228.86886</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>72130353.08054</v>
+        <v>72204020.24113999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>85370884.01876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>85840482.58628</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>111083192.292</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>10447116.17999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>12996177.16124</v>
+        <v>13003290.85999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>17239101.92246</v>
+        <v>17249574.10537</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>19825768.63807</v>
+        <v>19957581.96486</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>22110500.74553</v>
+        <v>22138960.89252</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>26645659.24034</v>
+        <v>26932097.48461</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>28599024.21689</v>
+        <v>29669154.25429</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>31848439.99083</v>
+        <v>31968564.0057</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>39903803.33439</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>51469113.76583999</v>
+        <v>51541233.67187</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>61378830.74006999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>61799136.93403</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>79989416.07700001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4606944.448600001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>5297658.94078</v>
+        <v>5298307.07336</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6999677.4</v>
+        <v>7000567.17071</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>7202286.834159999</v>
+        <v>7260801.84957</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8483965.257510001</v>
+        <v>8578856.75544</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9183645.818389999</v>
+        <v>9356474.187720001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>8941852.341389999</v>
+        <v>9706574.12961</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>11309745.69754</v>
+        <v>11309785.2578</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>14054357.35249</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>19747990.0446</v>
+        <v>19749309.88306</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>22882825.54602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>22926443.31626</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>29600920.817</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>153337.43702</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>168906.0706</v>
+        <v>168936.25734</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>228249.1945</v>
+        <v>228289.47263</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>214438.74098</v>
+        <v>216651.65657</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>285981.65992</v>
+        <v>294872.18966</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>326060.8729199999</v>
+        <v>329667.39845</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>442447.58779</v>
+        <v>461474.06979</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>573085.30461</v>
+        <v>575702.4334</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>606068.18198</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>913249.2701000002</v>
+        <v>913476.6862100001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1109227.73267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1114902.33599</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1492855.398</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>335763.02979</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>382600.84497</v>
+        <v>382631.4961</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>463743.2519</v>
+        <v>463895.92602</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>496802.6897</v>
+        <v>499149.29972</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>484963.6900300001</v>
+        <v>485045.59224</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>705407.0144099999</v>
+        <v>716280.5915499999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>725036.2956400001</v>
+        <v>765259.74075</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>895464.5563500001</v>
+        <v>897205.24981</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1031270.42955</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1534542.90797</v>
+        <v>1534800.65646</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1557651.966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1565266.58438</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2196672.634</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>200760.07555</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>230310.11338</v>
+        <v>230340.76451</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>296886.37274</v>
+        <v>296959.13651</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>311695.36624</v>
+        <v>313908.06906</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>329299.85814</v>
+        <v>329328.9543400001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>453574.07302</v>
+        <v>455551.39941</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>462449.47361</v>
+        <v>473252.14299</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>603554.16885</v>
+        <v>605294.8623100001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>689895.39695</v>
+        <v>689895.3969500001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>963177.7074399999</v>
+        <v>963329.5752100002</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1075480.18679</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1082105.72568</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1465526.654</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>86747.15502999999</v>
@@ -1190,19 +1126,19 @@
         <v>105358.50663</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>118524.3893</v>
+        <v>118604.29965</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>135348.75785</v>
+        <v>135426.91997</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>99017.36912</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>158171.51373</v>
+        <v>158537.34559</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>157857.6654</v>
+        <v>169212.28933</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>170508.97977</v>
@@ -1211,37 +1147,42 @@
         <v>181362.21044</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>184287.29423</v>
+        <v>184301.33647</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>207800.93023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>208189.46492</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>397712.372</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>48255.79921</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>46932.22495999999</v>
+        <v>46932.22496</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>48332.48986</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>49758.56561</v>
+        <v>49814.31069</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>56646.46277000001</v>
+        <v>56699.26878</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>93661.42766</v>
+        <v>102191.84655</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>104729.15663</v>
+        <v>122795.30843</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>121401.40773</v>
@@ -1250,214 +1191,244 @@
         <v>160012.82216</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>387077.9063</v>
+        <v>387169.74478</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>274370.84898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>274971.39378</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>333433.608</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>14871635.03582</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>18080141.32765</v>
+        <v>18087902.69459</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>24003285.26506</v>
+        <v>24014534.82269</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>26745691.52351</v>
+        <v>26935886.17128</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>30395483.97293</v>
+        <v>30527644.24538</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>35449958.91724</v>
+        <v>35901958.47922999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>37258287.85042999</v>
+        <v>39071942.71294</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>42835806.43663</v>
+        <v>42956846.44709001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>53532958.43931</v>
+        <v>53532958.43931001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>70595810.17257001</v>
+        <v>70669219.58467999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>83813232.05276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>84275216.00189999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>108886519.658</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>12756758.66245</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>15863627.05975</v>
+        <v>15870244.0438</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>20736596.11474</v>
+        <v>20745753.75144</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>23422911.49527</v>
+        <v>23595418.77608</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>26243727.72765</v>
+        <v>26364797.747</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>30692582.19235</v>
+        <v>31083972.00913</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>31543522.02172</v>
+        <v>33035982.51624</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>36061966.02913</v>
+        <v>36169209.77908</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>44938366.54926999</v>
+        <v>44938366.54927</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>58388603.60691</v>
+        <v>58453681.2554</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>70964794.16227001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>71380355.53252998</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>87051395.712</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>10591709.46995</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>13262671.37644</v>
+        <v>13268887.24561</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>17487288.64773</v>
+        <v>17496026.15437</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>19599733.01936</v>
+        <v>19741618.41156</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>21984937.4666</v>
+        <v>22102565.64738</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>25977455.2343</v>
+        <v>26344218.65797</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>26637597.1471</v>
+        <v>27849653.7014</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>30126893.39789</v>
+        <v>30229918.12569</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>37877664.45932</v>
+        <v>37877664.45932001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>49379043.21529999</v>
+        <v>49398060.66467</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>59945425.24053</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>60227531.19993</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>72304104.367</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1727484.96122</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2098209.34734</v>
+        <v>2098610.46222</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2651966.54201</v>
+        <v>2652386.1456</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3120226.76348</v>
+        <v>3150277.77648</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3477658.59841</v>
+        <v>3481100.43698</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3799478.827109999</v>
+        <v>3823830.9931</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3981630.39216</v>
+        <v>4243651.84413</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>4853999.96859</v>
+        <v>4857098.59545</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>5694261.80942</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>7179944.347709999</v>
+        <v>7213910.282559999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>8732334.682290001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>8840636.204080001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>11986536.831</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>372635.97926</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>437607.81674</v>
+        <v>437607.8167399999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>490516.4160400001</v>
+        <v>490516.94251</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>598995.92125</v>
+        <v>598996.2702799999</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>665622.53224</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>682046.06967</v>
+        <v>682211.12635</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>762017.24113</v>
+        <v>764667.78715</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>869564.9513</v>
+        <v>870685.34659</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1137813.21066</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1336354.15371</v>
+        <v>1348367.746</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1581880.21124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1606643.21427</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1916657.339</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>64928.25201999999</v>
+        <v>64928.25202</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>65138.51923000001</v>
@@ -1466,16 +1437,16 @@
         <v>106824.50896</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>103955.79118</v>
+        <v>104526.31776</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>115509.1304</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>233602.06127</v>
+        <v>233711.23171</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>162277.24133</v>
+        <v>178009.18356</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>211507.71135</v>
@@ -1484,100 +1455,115 @@
         <v>228627.06987</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>493261.89019</v>
+        <v>493342.5621699999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>705154.02821</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>705544.91425</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>844097.175</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2114876.37337</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2216514.267899999</v>
+        <v>2217658.65079</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3266689.15032</v>
+        <v>3268781.071250001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3322780.02824</v>
+        <v>3340467.3952</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4151756.24528</v>
+        <v>4162846.49838</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4757376.72489</v>
+        <v>4817986.4701</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5714765.828709999</v>
+        <v>6035960.1967</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>6773840.407499999</v>
+        <v>6787636.66801</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>8594591.890040001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>12207206.56566</v>
+        <v>12215538.32928</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>12848437.89049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12894860.46937</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>21835123.946</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1114351.01375</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1305133.44765</v>
+        <v>1305749.33231</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1585371.47927</v>
+        <v>1586151.83789</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1866369.4609</v>
+        <v>1872847.86112</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2088605.77287</v>
+        <v>2094776.26069</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2487844.88259</v>
+        <v>2509812.11236</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2707946.03582</v>
+        <v>2814695.91753</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3225616.6454</v>
+        <v>3231708.49609</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3784076.21718</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4679702.12809</v>
+        <v>4689340.4904</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5646612.03306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5679760.11725</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6570256.039</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>9406.27054</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>7353.754199999999</v>
+        <v>7353.7542</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>11135.82854</v>
@@ -1589,10 +1575,10 @@
         <v>16438.40798</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>15069.31524</v>
+        <v>15098.75544</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>13200.1808</v>
+        <v>13506.44474</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>19638.62861</v>
@@ -1601,172 +1587,197 @@
         <v>34102.27061</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>39423.47338999999</v>
+        <v>39423.57338999999</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>50964.16853</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>62833.533</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>479033.0346</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>589629.73388</v>
+        <v>589698.04101</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>727684.5600000002</v>
+        <v>727776.5953500001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>858512.1452799999</v>
+        <v>860603.02773</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>923648.4086699999</v>
+        <v>927149.96849</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1117253.62774</v>
+        <v>1126624.84786</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1225866.39799</v>
+        <v>1276409.44166</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1430329.73223</v>
+        <v>1432108.08008</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1753403.65487</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2210180.45555</v>
+        <v>2211505.52116</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2588406.40781</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2595399.25621</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3097924.745</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>625911.70861</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>708149.9595699999</v>
+        <v>708697.5371000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>846551.0907300002</v>
+        <v>847239.414</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>994571.75761</v>
+        <v>998959.2753800001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1148518.95622</v>
+        <v>1151187.88422</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1355521.93961</v>
+        <v>1368088.50906</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1468879.45703</v>
+        <v>1524780.03113</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1775648.28456</v>
+        <v>1779961.7874</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1996570.2917</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2430098.19915</v>
+        <v>2438411.39585</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3007241.45672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3033396.69251</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3409497.761</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1000525.35962</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>911380.82025</v>
+        <v>911909.31848</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1681317.67105</v>
+        <v>1682629.23336</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1456410.56734</v>
+        <v>1467619.53408</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2063150.47241</v>
+        <v>2068070.23769</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2269531.8423</v>
+        <v>2308174.35774</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3006819.79289</v>
+        <v>3221264.27917</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3548223.7621</v>
+        <v>3555928.17192</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>4810515.67286</v>
+        <v>4810515.672859999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7527504.437570001</v>
+        <v>7526197.838879999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7201825.857429999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7215100.352120001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>15264867.907</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>748966.5338199999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>899234.0578699999</v>
+        <v>899541.54814</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1209769.53975</v>
+        <v>1210756.06804</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1007516.54466</v>
+        <v>1017476.01437</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1543953.71088</v>
+        <v>1563029.88476</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1928279.405</v>
+        <v>1951200.38302</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3695323.7613</v>
+        <v>3862357.18262</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3367271.56447</v>
+        <v>3376062.50908</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>4061343.83824</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>13113416.90768</v>
+        <v>13117615.35866</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6605539.158960001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6611550.23084</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>11419336.246</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5266.3586</v>
@@ -1784,10 +1795,10 @@
         <v>10702.85865</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>7860.01613</v>
+        <v>9660.016129999998</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>26442.24249</v>
+        <v>26564.64249</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>45871.98123</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>248470.65385</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>402873.798</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>21130.37331</v>
@@ -1838,58 +1854,68 @@
         <v>238852.03194</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>259803.67899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>259809.06666</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>395018.703</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>31565.41158</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>24918.2652</v>
+        <v>24918.6546</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>39566.04881</v>
+        <v>39588.27346</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>67624.15849</v>
+        <v>67732.46740000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>77969.57736</v>
+        <v>78061.48475</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>117549.08026</v>
+        <v>117837.67609</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>163607.41341</v>
+        <v>166380.13699</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>136112.51028</v>
+        <v>136204.00078</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>230624.37814</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>400333.69355</v>
+        <v>400391.08703</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>427911.31998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>428640.1928799999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>374789.661</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1656.55663</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>38061.13572999999</v>
+        <v>38061.13573</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>1462.91492</v>
@@ -1898,13 +1924,13 @@
         <v>2073.39383</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>922.8669699999999</v>
+        <v>966.38311</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>879.5403999999999</v>
+        <v>888.8153399999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>685.3956999999999</v>
+        <v>11077.43765</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>1472.94165</v>
@@ -1913,16 +1939,21 @@
         <v>3488.95792</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>27432.0572</v>
+        <v>27434.58388</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>9989.010699999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>22706.368</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>27058.29634</v>
@@ -1940,28 +1971,33 @@
         <v>10778.39125</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>43965.0366</v>
+        <v>43965.03695</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>41171.84228</v>
+        <v>41276.46234000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>55895.57659999999</v>
+        <v>58056.172</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>68617.96971</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>66695.68223000001</v>
+        <v>66695.68222999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>67267.8385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>67467.93336</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>68159.887</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1419.45172</v>
@@ -1973,73 +2009,83 @@
         <v>37156.48909</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>7688.692129999999</v>
+        <v>7688.843629999999</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>20564.82322</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>6534.762890000001</v>
+        <v>6629.76289</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>195541.54778</v>
+        <v>196626.31433</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>8760.997710000001</v>
+        <v>8760.997820000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>36091.7538</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>35304.82448999999</v>
+        <v>35304.82695</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>96434.17481</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>96437.30227</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>87485.51300000001</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>574411.38177</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>587670.73002</v>
+        <v>587977.8308900001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>914361.3967599999</v>
+        <v>915325.7004000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>725130.0028299999</v>
+        <v>734932.30593</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1232241.59399</v>
+        <v>1251182.34434</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1497111.11441</v>
+        <v>1508365.77993</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2945518.00126</v>
+        <v>3069801.35058</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2657246.99154</v>
+        <v>2663274.14177</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3170809.51429</v>
+        <v>3170809.514289999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11477607.1183</v>
+        <v>11481045.78056</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4959378.7835</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4960848.511519999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>9567582.625</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>10589.7351</v>
@@ -2057,10 +2103,10 @@
         <v>49398.6617</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>76040.64735</v>
+        <v>85398.63515999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>62182.46606</v>
+        <v>84764.68012</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>138710.69871</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>224630.38091</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>132873.326</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>842.15382</v>
+        <v>842.1538200000001</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>11.32715</v>
@@ -2090,7 +2141,7 @@
         <v>88.65503</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>97.74565999999999</v>
+        <v>97.74566</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>40.60608</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>605.7966799999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>591.893</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>75026.81495</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>93500.57870999999</v>
+        <v>93500.57871</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>137872.81893</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>114683.97437</v>
+        <v>114732.68057</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>132270.87417</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>153048.19386</v>
+        <v>153163.64743</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>208391.09859</v>
+        <v>214082.40439</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>232319.33534</v>
+        <v>232831.04371</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>242387.41266</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>321759.3361</v>
+        <v>322459.2022</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>311047.52104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>314651.38201</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>367254.472</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>736928.93285</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>708375.10055</v>
+        <v>708544.4088099999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1328385.43641</v>
+        <v>1329037.9915</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>790445.4064899998</v>
+        <v>799251.8108000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1878514.0096</v>
+        <v>1909842.80055</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1865340.27783</v>
+        <v>1891230.26227</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3983559.24297</v>
+        <v>4193444.65868</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3687838.94812</v>
+        <v>3697163.0092</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>4514527.35876</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13871437.41151</v>
+        <v>13874976.95143</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6450705.265780001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6453449.41533</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12481769.678</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>15391.75039</v>
@@ -2207,7 +2273,7 @@
         <v>5916.837189999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5235.24209</v>
+        <v>5248.42715</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>7298.53708</v>
@@ -2216,25 +2282,30 @@
         <v>8323.70415</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>10078.44119</v>
+        <v>25324.42991</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>15501.58781</v>
+        <v>15501.63156</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>19859.78914</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>36110.81687</v>
+        <v>36123.23961</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>38635.71153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>38644.97378</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>78453.841</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>68154.01612999999</v>
@@ -2243,19 +2314,19 @@
         <v>62392.00001999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>56284.91435000001</v>
+        <v>56284.91434999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>75936.43061000001</v>
+        <v>75936.43060999998</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>61625.42625</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>59269.20331</v>
+        <v>59592.13690999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>190792.33069</v>
+        <v>208939.81043</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>148273.29315</v>
@@ -2264,16 +2335,21 @@
         <v>171381.24041</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>152862.9167</v>
+        <v>152922.2855</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>217329.5142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>217956.94748</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>255619.949</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2163.62257</v>
@@ -2294,13 +2370,13 @@
         <v>7624.30575</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1079.51845</v>
+        <v>1251.65941</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>2357.16798</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>5359.756189999999</v>
+        <v>5359.75619</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>10657.65973</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>459.79592</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2172.07</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>588674.1634300001</v>
+        <v>588674.16343</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>584919.2241600001</v>
+        <v>585088.5324199999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1213040.54857</v>
+        <v>1213693.10366</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>663414.5213499999</v>
+        <v>672207.7405999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1664673.31733</v>
+        <v>1695964.59897</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1671292.41305</v>
+        <v>1682707.93105</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3648844.06904</v>
+        <v>3800445.53863</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3323762.111519999</v>
+        <v>3332993.53061</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4139732.75762</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>13352521.92523</v>
+        <v>13355845.38347</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5877755.380379999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5879848.448109999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11874679.689</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>15044.10929</v>
@@ -2369,10 +2455,10 @@
         <v>72885.80632999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>85839.19561999998</v>
+        <v>99946.42698999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>69120.28473999999</v>
+        <v>92825.15104000001</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>132047.96202</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>200863.26484</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>129666.174</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>36.66029</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>34.28411</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>63.686</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>47464.61075000001</v>
+        <v>47464.61075</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>38884.94685</v>
+        <v>38884.94684999999</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>40724.19584</v>
@@ -2444,109 +2540,124 @@
         <v>36476.29789</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>38741.99872</v>
+        <v>38779.50803</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>32980.92598</v>
+        <v>33025.22745</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>63644.59851</v>
+        <v>64658.06890999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>65894.28163000001</v>
+        <v>65986.87987</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>55972.42673000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>90768.35097999999</v>
+        <v>90912.64112</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>115627.3148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>115641.70109</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>141114.269</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>448069.37046</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>323452.18364</v>
+        <v>323811.4064</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>579598.3848999999</v>
+        <v>580284.84609</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>532256.1792599999</v>
+        <v>535738.52786</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>895457.3406799999</v>
+        <v>897874.15088</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>922394.69591</v>
+        <v>936620.5610399999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1391673.08661</v>
+        <v>1423857.32088</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1531437.69476</v>
+        <v>1535215.42578</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1920019.70638</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3981206.343129999</v>
+        <v>3981920.04034</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3499795.50223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3501586.49961</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4107108.625</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>391157.77367</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>273891.22605</v>
+        <v>274250.44881</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>484216.51575</v>
+        <v>484902.9769400001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>472765.43011</v>
+        <v>476247.77871</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>728174.55833</v>
+        <v>728628.09473</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>834982.48834</v>
+        <v>843383.16414</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1136277.2077</v>
+        <v>1161669.86493</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1247805.30491</v>
+        <v>1251583.03593</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1535248.45356</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3111849.69301</v>
+        <v>3112563.39022</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2940406.252919999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2941600.89735</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3328189.469</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>56911.59679</v>
@@ -2555,115 +2666,130 @@
         <v>49560.95759000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>95381.86914999998</v>
+        <v>95381.86915000001</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>59490.74915</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>167282.78235</v>
+        <v>169246.05615</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>87412.20757</v>
+        <v>93237.39690000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>255395.87891</v>
+        <v>262187.45595</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>283632.38985</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>384771.2528199999</v>
+        <v>384771.2528200001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>869356.65012</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>559389.2493100001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>559985.60226</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>778919.156</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>564493.59013</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>778787.5939300001</v>
+        <v>779095.0514100001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>983103.38949</v>
+        <v>984062.4638100001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1141225.52625</v>
+        <v>1150105.20979</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>833132.8330099999</v>
+        <v>823383.17102</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1410076.27356</v>
+        <v>1431523.91745</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1326911.22461</v>
+        <v>1466319.48223</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1696218.68369</v>
+        <v>1699612.24602</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2437312.44596</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2788277.59061</v>
+        <v>2786916.20577</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3856864.24838</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3871614.668020001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>10095325.85</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>186480.15706</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>149969.47439</v>
+        <v>149974.58679</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>163216.26639</v>
+        <v>163926.47952</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>142769.68342</v>
+        <v>144240.44398</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>213634.87661</v>
+        <v>214261.77097</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>334616.4276699999</v>
+        <v>335589.15896</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>351207.3839</v>
+        <v>355870.0904099999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>610605.5004000001</v>
+        <v>611791.23977</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>616617.9062199999</v>
+        <v>616617.90622</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>831638.36399</v>
+        <v>833135.6121100001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>906946.9195200001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>913653.50124</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>952481.084</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1719.84659</v>
@@ -2675,112 +2801,127 @@
         <v>6592.84425</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>8003.25482</v>
+        <v>8006.82082</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>7782.216770000001</v>
+        <v>7782.21677</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>3007.02226</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>10092.2397</v>
+        <v>10093.36021</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>44598.25153999999</v>
+        <v>44598.25154</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4378.51997</v>
+        <v>4378.519969999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7951.02237</v>
+        <v>7951.022369999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>8580.944599999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3727.6707</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>7062.545</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>184760.31047</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>147815.29624</v>
+        <v>147820.40864</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>156623.42214</v>
+        <v>157333.63527</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>134766.4286</v>
+        <v>136233.62316</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>205852.65984</v>
+        <v>206479.5542</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>331609.4054099999</v>
+        <v>332582.1367</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>341115.1442</v>
+        <v>345776.7302</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>566007.2488600001</v>
+        <v>567192.98823</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>612239.38625</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>823687.34162</v>
+        <v>825184.58974</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>898365.9749200001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>909925.83054</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>945418.539</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>168868.26303</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>130485.24738</v>
+        <v>130519.75872</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>494585.03961</v>
+        <v>495080.16616</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>147684.56284</v>
+        <v>147998.37675</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>187003.53765</v>
+        <v>187110.56967</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>399789.84546</v>
+        <v>400095.05396</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>213625.28336</v>
+        <v>217625.00113</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>445011.17895</v>
+        <v>445663.44559</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>276268.7205999999</v>
+        <v>276268.7206</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>605738.3011800001</v>
+        <v>610884.9263299999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>357057.00847</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>362800.82375</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>834942.8419999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>45097.05894</v>
@@ -2792,7 +2933,7 @@
         <v>26155.51749</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>49339.01661</v>
+        <v>49363.17338</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>36708.99305</v>
@@ -2801,28 +2942,33 @@
         <v>33471.82191</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>26277.29145</v>
+        <v>27506.86912</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>36922.02656999999</v>
+        <v>36922.02657</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>52613.01281</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>63756.46322999999</v>
+        <v>64164.05263</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>64528.97725</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>64540.66534</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>150097.273</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5677.18697</v>
+        <v>5677.186970000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>5827.97333</v>
@@ -2831,187 +2977,210 @@
         <v>12436.11451</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>10539.33508</v>
+        <v>10540.31933</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>9988.434879999999</v>
+        <v>10082.95857</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>14974.93854</v>
+        <v>15038.0555</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>15680.12697</v>
+        <v>15723.79053</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7554.67305</v>
+        <v>7557.90777</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>5169.8745</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12435.12594</v>
+        <v>12471.73801</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>13435.9689</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>13490.53018</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>10140.724</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>118094.01712</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>104549.21214</v>
+        <v>104583.72348</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>455993.4076099999</v>
+        <v>456488.53416</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>87806.21115</v>
+        <v>88094.88403999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>140306.10972</v>
+        <v>140318.61805</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>351343.08501</v>
+        <v>351585.1765500001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>171667.86494</v>
+        <v>174394.34148</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>400534.47933</v>
+        <v>401183.51125</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>218485.83329</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>529546.71201</v>
+        <v>534249.13569</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>279092.06232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>284769.62823</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>674704.845</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>582105.48416</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>798271.8209399999</v>
+        <v>798549.8794799999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>651734.6162700001</v>
+        <v>652908.7771699999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1136310.64683</v>
+        <v>1146347.27702</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>859764.17197</v>
+        <v>850534.3723200001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1344902.85577</v>
+        <v>1367018.02245</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1464493.32515</v>
+        <v>1604564.57151</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1861813.00514</v>
+        <v>1865740.0402</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2777661.63158</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3014177.65342</v>
+        <v>3009166.89155</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4406754.159429999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4422467.34551</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>10212864.092</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>100415.39716</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>119296.72032</v>
+        <v>119359.23383</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>177427.41878</v>
+        <v>177643.93747</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>187738.33034</v>
+        <v>189104.26959</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>199358.1545</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>222552.91427</v>
+        <v>224237.15645</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>228282.49696</v>
+        <v>251875.93643</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>263708.52162</v>
+        <v>263829.69712</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>314266.93278</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>478694.05043</v>
+        <v>478986.72909</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>477554.4348100001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>481051.6815900001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1024140.509</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>481690.087</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>678975.10062</v>
+        <v>679190.64565</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>474307.19749</v>
+        <v>475264.8397</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>948572.31649</v>
+        <v>957243.00743</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>660406.0174700001</v>
+        <v>651176.2178199999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1122349.9415</v>
+        <v>1142780.866</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1236210.82819</v>
+        <v>1352688.63508</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1598104.48352</v>
+        <v>1601910.34308</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>2463394.6988</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2535483.60299</v>
+        <v>2530180.16246</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3929199.72462</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3941415.66392</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>9188723.583000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3312</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3424</v>
+        <v>3427</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3583</v>
+        <v>3590</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3686</v>
+        <v>3700</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3807</v>
+        <v>3848</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3921</v>
+        <v>3944</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4124</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4013</v>
+        <v>4353</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4586</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>